--- a/biology/Botanique/Quercus_kelloggii/Quercus_kelloggii.xlsx
+++ b/biology/Botanique/Quercus_kelloggii/Quercus_kelloggii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus kelloggii, parfois nommé chêne noir de Californie ou chêne de Kellogg est une espèce de chênes (famille des Fagaceae). Il pousse en Amérique du Nord et est très proche du chêne noir (Quercus velutina) que l'on trouve dans l'est et le centre du continent. Il mesure environ 9 à 25 m et son tronc a un diamètre de 30 cm à 1,4 m. Il peut vivre jusqu'à 500 ans.
-Ses glands constituent la nourriture de base des indiens Yosemite[1]. 
+Ses glands constituent la nourriture de base des indiens Yosemite. 
 </t>
         </is>
       </c>
